--- a/natmiOut/OldD7/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.11523595268</v>
+        <v>21.39646633333334</v>
       </c>
       <c r="H2">
-        <v>14.11523595268</v>
+        <v>64.18939900000001</v>
       </c>
       <c r="I2">
-        <v>0.05378362204308318</v>
+        <v>0.0721325008796955</v>
       </c>
       <c r="J2">
-        <v>0.05378362204308318</v>
+        <v>0.0721325008796955</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N2">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O2">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P2">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q2">
-        <v>17.51414040793529</v>
+        <v>39.68128022858723</v>
       </c>
       <c r="R2">
-        <v>17.51414040793529</v>
+        <v>357.1315220572851</v>
       </c>
       <c r="S2">
-        <v>0.000604993024596932</v>
+        <v>0.001191175667189359</v>
       </c>
       <c r="T2">
-        <v>0.000604993024596932</v>
+        <v>0.001191175667189359</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.11523595268</v>
+        <v>21.39646633333334</v>
       </c>
       <c r="H3">
-        <v>14.11523595268</v>
+        <v>64.18939900000001</v>
       </c>
       <c r="I3">
-        <v>0.05378362204308318</v>
+        <v>0.0721325008796955</v>
       </c>
       <c r="J3">
-        <v>0.05378362204308318</v>
+        <v>0.0721325008796955</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N3">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P3">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q3">
-        <v>1310.452886299799</v>
+        <v>1988.025374602781</v>
       </c>
       <c r="R3">
-        <v>1310.452886299799</v>
+        <v>17892.22837142503</v>
       </c>
       <c r="S3">
-        <v>0.0452671291201415</v>
+        <v>0.05967769785501584</v>
       </c>
       <c r="T3">
-        <v>0.0452671291201415</v>
+        <v>0.05967769785501585</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.11523595268</v>
+        <v>21.39646633333334</v>
       </c>
       <c r="H4">
-        <v>14.11523595268</v>
+        <v>64.18939900000001</v>
       </c>
       <c r="I4">
-        <v>0.05378362204308318</v>
+        <v>0.0721325008796955</v>
       </c>
       <c r="J4">
-        <v>0.05378362204308318</v>
+        <v>0.0721325008796955</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N4">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O4">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P4">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q4">
-        <v>2.203805627054169</v>
+        <v>3.469137465421334</v>
       </c>
       <c r="R4">
-        <v>2.203805627054169</v>
+        <v>31.22223718879201</v>
       </c>
       <c r="S4">
-        <v>7.612631855635665E-05</v>
+        <v>0.0001041385789757818</v>
       </c>
       <c r="T4">
-        <v>7.612631855635665E-05</v>
+        <v>0.0001041385789757818</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.11523595268</v>
+        <v>21.39646633333334</v>
       </c>
       <c r="H5">
-        <v>14.11523595268</v>
+        <v>64.18939900000001</v>
       </c>
       <c r="I5">
-        <v>0.05378362204308318</v>
+        <v>0.0721325008796955</v>
       </c>
       <c r="J5">
-        <v>0.05378362204308318</v>
+        <v>0.0721325008796955</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N5">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O5">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P5">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q5">
-        <v>226.8287855326398</v>
+        <v>371.752726004614</v>
       </c>
       <c r="R5">
-        <v>226.8287855326398</v>
+        <v>3345.774534041525</v>
       </c>
       <c r="S5">
-        <v>0.007835373579788399</v>
+        <v>0.01115948877851451</v>
       </c>
       <c r="T5">
-        <v>0.007835373579788399</v>
+        <v>0.01115948877851451</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>129.025471824535</v>
+        <v>130.868154</v>
       </c>
       <c r="H6">
-        <v>129.025471824535</v>
+        <v>392.604462</v>
       </c>
       <c r="I6">
-        <v>0.4916288494081959</v>
+        <v>0.441187207572817</v>
       </c>
       <c r="J6">
-        <v>0.4916288494081959</v>
+        <v>0.441187207572817</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N6">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O6">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P6">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q6">
-        <v>160.0943999314409</v>
+        <v>242.70437047737</v>
       </c>
       <c r="R6">
-        <v>160.0943999314409</v>
+        <v>2184.33933429633</v>
       </c>
       <c r="S6">
-        <v>0.005530159801143872</v>
+        <v>0.007285640452317822</v>
       </c>
       <c r="T6">
-        <v>0.005530159801143872</v>
+        <v>0.007285640452317824</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>129.025471824535</v>
+        <v>130.868154</v>
       </c>
       <c r="H7">
-        <v>129.025471824535</v>
+        <v>392.604462</v>
       </c>
       <c r="I7">
-        <v>0.4916288494081959</v>
+        <v>0.441187207572817</v>
       </c>
       <c r="J7">
-        <v>0.4916288494081959</v>
+        <v>0.441187207572817</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N7">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O7">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P7">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q7">
-        <v>11978.67343666702</v>
+        <v>12159.44758476822</v>
       </c>
       <c r="R7">
-        <v>11978.67343666702</v>
+        <v>109435.0282629139</v>
       </c>
       <c r="S7">
-        <v>0.4137807339847884</v>
+        <v>0.365009344607932</v>
       </c>
       <c r="T7">
-        <v>0.4137807339847884</v>
+        <v>0.3650093446079321</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>129.025471824535</v>
+        <v>130.868154</v>
       </c>
       <c r="H8">
-        <v>129.025471824535</v>
+        <v>392.604462</v>
       </c>
       <c r="I8">
-        <v>0.4916288494081959</v>
+        <v>0.441187207572817</v>
       </c>
       <c r="J8">
-        <v>0.4916288494081959</v>
+        <v>0.441187207572817</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N8">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O8">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P8">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q8">
-        <v>20.14469058777878</v>
+        <v>21.218439016944</v>
       </c>
       <c r="R8">
-        <v>20.14469058777878</v>
+        <v>190.965951152496</v>
       </c>
       <c r="S8">
-        <v>0.0006958604307378839</v>
+        <v>0.0006369473995578508</v>
       </c>
       <c r="T8">
-        <v>0.0006958604307378839</v>
+        <v>0.0006369473995578509</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>129.025471824535</v>
+        <v>130.868154</v>
       </c>
       <c r="H9">
-        <v>129.025471824535</v>
+        <v>392.604462</v>
       </c>
       <c r="I9">
-        <v>0.4916288494081959</v>
+        <v>0.441187207572817</v>
       </c>
       <c r="J9">
-        <v>0.4916288494081959</v>
+        <v>0.441187207572817</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N9">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O9">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P9">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q9">
-        <v>2073.411395661322</v>
+        <v>2273.76765110505</v>
       </c>
       <c r="R9">
-        <v>2073.411395661322</v>
+        <v>20463.90885994545</v>
       </c>
       <c r="S9">
-        <v>0.07162209519152578</v>
+        <v>0.06825527511300934</v>
       </c>
       <c r="T9">
-        <v>0.07162209519152578</v>
+        <v>0.06825527511300934</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>65.001530211833</v>
+        <v>75.02619166666666</v>
       </c>
       <c r="H10">
-        <v>65.001530211833</v>
+        <v>225.078575</v>
       </c>
       <c r="I10">
-        <v>0.2476768893453392</v>
+        <v>0.2529308696158396</v>
       </c>
       <c r="J10">
-        <v>0.2476768893453392</v>
+        <v>0.2529308696158397</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N10">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O10">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P10">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q10">
-        <v>80.65369439641135</v>
+        <v>139.1414493229028</v>
       </c>
       <c r="R10">
-        <v>80.65369439641135</v>
+        <v>1252.273043906125</v>
       </c>
       <c r="S10">
-        <v>0.002786030109459073</v>
+        <v>0.004176828665207709</v>
       </c>
       <c r="T10">
-        <v>0.002786030109459073</v>
+        <v>0.004176828665207711</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>65.001530211833</v>
+        <v>75.02619166666666</v>
       </c>
       <c r="H11">
-        <v>65.001530211833</v>
+        <v>225.078575</v>
       </c>
       <c r="I11">
-        <v>0.2476768893453392</v>
+        <v>0.2529308696158396</v>
       </c>
       <c r="J11">
-        <v>0.2476768893453392</v>
+        <v>0.2529308696158397</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N11">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O11">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P11">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q11">
-        <v>6034.716186506756</v>
+        <v>6970.962890296497</v>
       </c>
       <c r="R11">
-        <v>6034.716186506756</v>
+        <v>62738.66601266847</v>
       </c>
       <c r="S11">
-        <v>0.208457915331352</v>
+        <v>0.2092584040627568</v>
       </c>
       <c r="T11">
-        <v>0.208457915331352</v>
+        <v>0.2092584040627569</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>65.001530211833</v>
+        <v>75.02619166666666</v>
       </c>
       <c r="H12">
-        <v>65.001530211833</v>
+        <v>225.078575</v>
       </c>
       <c r="I12">
-        <v>0.2476768893453392</v>
+        <v>0.2529308696158396</v>
       </c>
       <c r="J12">
-        <v>0.2476768893453392</v>
+        <v>0.2529308696158397</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N12">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O12">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P12">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q12">
-        <v>10.14866053448938</v>
+        <v>12.16444661206667</v>
       </c>
       <c r="R12">
-        <v>10.14866053448938</v>
+        <v>109.4800195086</v>
       </c>
       <c r="S12">
-        <v>0.0003505663817555329</v>
+        <v>0.0003651594083065635</v>
       </c>
       <c r="T12">
-        <v>0.0003505663817555329</v>
+        <v>0.0003651594083065636</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>65.001530211833</v>
+        <v>75.02619166666666</v>
       </c>
       <c r="H13">
-        <v>65.001530211833</v>
+        <v>225.078575</v>
       </c>
       <c r="I13">
-        <v>0.2476768893453392</v>
+        <v>0.2529308696158396</v>
       </c>
       <c r="J13">
-        <v>0.2476768893453392</v>
+        <v>0.2529308696158397</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N13">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O13">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P13">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q13">
-        <v>1044.560516391074</v>
+        <v>1303.541941894236</v>
       </c>
       <c r="R13">
-        <v>1044.560516391074</v>
+        <v>11731.87747704813</v>
       </c>
       <c r="S13">
-        <v>0.03608237752277269</v>
+        <v>0.03913047747956849</v>
       </c>
       <c r="T13">
-        <v>0.03608237752277269</v>
+        <v>0.0391304774795685</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.3026367977977</v>
+        <v>69.33645133333333</v>
       </c>
       <c r="H14">
-        <v>54.3026367977977</v>
+        <v>208.009354</v>
       </c>
       <c r="I14">
-        <v>0.2069106392033816</v>
+        <v>0.2337494219316478</v>
       </c>
       <c r="J14">
-        <v>0.2069106392033816</v>
+        <v>0.2337494219316478</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N14">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O14">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P14">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q14">
-        <v>67.37854107335473</v>
+        <v>128.5894181100122</v>
       </c>
       <c r="R14">
-        <v>67.37854107335473</v>
+        <v>1157.30476299011</v>
       </c>
       <c r="S14">
-        <v>0.002327464917343495</v>
+        <v>0.003860071676829027</v>
       </c>
       <c r="T14">
-        <v>0.002327464917343495</v>
+        <v>0.003860071676829028</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.3026367977977</v>
+        <v>69.33645133333333</v>
       </c>
       <c r="H15">
-        <v>54.3026367977977</v>
+        <v>208.009354</v>
       </c>
       <c r="I15">
-        <v>0.2069106392033816</v>
+        <v>0.2337494219316478</v>
       </c>
       <c r="J15">
-        <v>0.2069106392033816</v>
+        <v>0.2337494219316478</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N15">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O15">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P15">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q15">
-        <v>5041.435181383036</v>
+        <v>6442.307925436916</v>
       </c>
       <c r="R15">
-        <v>5041.435181383036</v>
+        <v>57980.77132893224</v>
       </c>
       <c r="S15">
-        <v>0.1741468920343016</v>
+        <v>0.1933889329455948</v>
       </c>
       <c r="T15">
-        <v>0.1741468920343016</v>
+        <v>0.1933889329455948</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.3026367977977</v>
+        <v>69.33645133333333</v>
       </c>
       <c r="H16">
-        <v>54.3026367977977</v>
+        <v>208.009354</v>
       </c>
       <c r="I16">
-        <v>0.2069106392033816</v>
+        <v>0.2337494219316478</v>
       </c>
       <c r="J16">
-        <v>0.2069106392033816</v>
+        <v>0.2337494219316478</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N16">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O16">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P16">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q16">
-        <v>8.478246976533443</v>
+        <v>11.24193487338133</v>
       </c>
       <c r="R16">
-        <v>8.478246976533443</v>
+        <v>101.177413860432</v>
       </c>
       <c r="S16">
-        <v>0.0002928650885594586</v>
+        <v>0.0003374669162929901</v>
       </c>
       <c r="T16">
-        <v>0.0002928650885594586</v>
+        <v>0.0003374669162929902</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>54.3026367977977</v>
+        <v>69.33645133333333</v>
       </c>
       <c r="H17">
-        <v>54.3026367977977</v>
+        <v>208.009354</v>
       </c>
       <c r="I17">
-        <v>0.2069106392033816</v>
+        <v>0.2337494219316478</v>
       </c>
       <c r="J17">
-        <v>0.2069106392033816</v>
+        <v>0.2337494219316478</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N17">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O17">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P17">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q17">
-        <v>872.6316157489268</v>
+        <v>1204.685595887239</v>
       </c>
       <c r="R17">
-        <v>872.6316157489268</v>
+        <v>10842.17036298515</v>
       </c>
       <c r="S17">
-        <v>0.03014341716317714</v>
+        <v>0.03616295039293096</v>
       </c>
       <c r="T17">
-        <v>0.03014341716317714</v>
+        <v>0.03616295039293096</v>
       </c>
     </row>
   </sheetData>
